--- a/Tabellen/Ergebnisse_West_Modell_III.xlsx
+++ b/Tabellen/Ergebnisse_West_Modell_III.xlsx
@@ -45,6 +45,9 @@
     <t xml:space="preserve">*</t>
   </si>
   <si>
+    <t xml:space="preserve">wohnbestand_sq</t>
+  </si>
+  <si>
     <t xml:space="preserve">ausl_proz</t>
   </si>
   <si>
@@ -52,9 +55,6 @@
   </si>
   <si>
     <t xml:space="preserve">einkommen_sq</t>
-  </si>
-  <si>
-    <t xml:space="preserve">wohnbestand_sq</t>
   </si>
   <si>
     <t xml:space="preserve">group</t>
@@ -463,16 +463,16 @@
         <v>10</v>
       </c>
       <c r="B4" t="n">
-        <v>-0.01</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>-0.01</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0.04</v>
+        <v>0.03</v>
       </c>
       <c r="F4" t="s">
         <v>9</v>
@@ -483,16 +483,16 @@
         <v>11</v>
       </c>
       <c r="B5" t="n">
-        <v>-0.26</v>
+        <v>-0.01</v>
       </c>
       <c r="C5" t="n">
-        <v>-0.43</v>
+        <v>-0.01</v>
       </c>
       <c r="D5" t="n">
-        <v>-0.1</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>0.04</v>
       </c>
       <c r="F5" t="s">
         <v>9</v>
@@ -503,16 +503,16 @@
         <v>12</v>
       </c>
       <c r="B6" t="n">
-        <v>0.01</v>
+        <v>-0.26</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>-0.43</v>
       </c>
       <c r="D6" t="n">
-        <v>0.01</v>
+        <v>-0.1</v>
       </c>
       <c r="E6" t="n">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="F6" t="s">
         <v>9</v>
@@ -523,16 +523,16 @@
         <v>13</v>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="E7" t="n">
-        <v>0.03</v>
+        <v>0.01</v>
       </c>
       <c r="F7" t="s">
         <v>9</v>
